--- a/RawData/Citywide_Data.xlsx
+++ b/RawData/Citywide_Data.xlsx
@@ -251,11 +251,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -273,6 +273,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -280,8 +288,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,9 +350,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,21 +396,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,83 +411,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -438,19 +438,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,7 +504,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,25 +570,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,91 +606,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,19 +618,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,21 +629,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -662,26 +647,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -689,8 +665,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,22 +701,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,148 +734,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1453,7 +1453,7 @@
         <v>92450789763.9183</v>
       </c>
       <c r="M4">
-        <f>G4*299.6855/J4</f>
+        <f t="shared" si="4"/>
         <v>92437243860.6562</v>
       </c>
       <c r="N4">
@@ -1505,7 +1505,7 @@
         <v>92450789763.9183</v>
       </c>
       <c r="M5">
-        <f>G5*299.6855/J5</f>
+        <f t="shared" si="4"/>
         <v>92437243860.6562</v>
       </c>
       <c r="N5">
@@ -17997,19 +17997,19 @@
         <v>282.025</v>
       </c>
       <c r="K323">
-        <f>C323*299.6855/J323</f>
+        <f t="shared" ref="K323:K339" si="72">C323*299.6855/J323</f>
         <v>0</v>
       </c>
       <c r="L323">
-        <f>E323*299.6855/J323</f>
+        <f t="shared" ref="L323:L339" si="73">E323*299.6855/J323</f>
         <v>119746685559.791</v>
       </c>
       <c r="M323">
-        <f>G323*299.6855/J323</f>
+        <f t="shared" ref="M323:M339" si="74">G323*299.6855/J323</f>
         <v>116325048080.844</v>
       </c>
       <c r="N323">
-        <f>H323*299.6855/J323</f>
+        <f t="shared" ref="N323:N339" si="75">H323*299.6855/J323</f>
         <v>3081598971.72237</v>
       </c>
     </row>
@@ -18049,19 +18049,19 @@
         <v>282.025</v>
       </c>
       <c r="K324">
-        <f>C324*299.6855/J324</f>
+        <f t="shared" si="72"/>
         <v>5228092048.57725</v>
       </c>
       <c r="L324">
-        <f>E324*299.6855/J324</f>
+        <f t="shared" si="73"/>
         <v>119746685559.791</v>
       </c>
       <c r="M324">
-        <f>G324*299.6855/J324</f>
+        <f t="shared" si="74"/>
         <v>116325048080.844</v>
       </c>
       <c r="N324">
-        <f>H324*299.6855/J324</f>
+        <f t="shared" si="75"/>
         <v>3081598971.72237</v>
       </c>
     </row>
@@ -18101,19 +18101,19 @@
         <v>282.025</v>
       </c>
       <c r="K325">
-        <f>C325*299.6855/J325</f>
+        <f t="shared" si="72"/>
         <v>529609975.002216</v>
       </c>
       <c r="L325">
-        <f>E325*299.6855/J325</f>
+        <f t="shared" si="73"/>
         <v>119746685559.791</v>
       </c>
       <c r="M325">
-        <f>G325*299.6855/J325</f>
+        <f t="shared" si="74"/>
         <v>116325048080.844</v>
       </c>
       <c r="N325">
-        <f>H325*299.6855/J325</f>
+        <f t="shared" si="75"/>
         <v>3081598971.72237</v>
       </c>
     </row>
@@ -18153,19 +18153,19 @@
         <v>282.025</v>
       </c>
       <c r="K326">
-        <f>C326*299.6855/J326</f>
+        <f t="shared" si="72"/>
         <v>17841395425.9374</v>
       </c>
       <c r="L326">
-        <f>E326*299.6855/J326</f>
+        <f t="shared" si="73"/>
         <v>119746685559.791</v>
       </c>
       <c r="M326">
-        <f>G326*299.6855/J326</f>
+        <f t="shared" si="74"/>
         <v>116325048080.844</v>
       </c>
       <c r="N326">
-        <f>H326*299.6855/J326</f>
+        <f t="shared" si="75"/>
         <v>3081598971.72237</v>
       </c>
     </row>
@@ -18185,19 +18185,19 @@
         <v>-458410000</v>
       </c>
       <c r="E327" s="12">
-        <f t="shared" ref="E327:E339" si="72">113.99*1000000000</f>
+        <f t="shared" ref="E327:E339" si="76">113.99*1000000000</f>
         <v>113990000000</v>
       </c>
       <c r="F327" s="12">
-        <f t="shared" ref="F327:F339" si="73">-1.1*1000000000</f>
+        <f t="shared" ref="F327:F339" si="77">-1.1*1000000000</f>
         <v>-1100000000</v>
       </c>
       <c r="G327" s="12">
-        <f t="shared" ref="G327:G339" si="74">112.02*1000000000</f>
+        <f t="shared" ref="G327:G339" si="78">112.02*1000000000</f>
         <v>112020000000</v>
       </c>
       <c r="H327" s="12">
-        <f t="shared" ref="H327:H339" si="75">867.67*0.001*1000000000</f>
+        <f t="shared" ref="H327:H339" si="79">867.67*0.001*1000000000</f>
         <v>867670000</v>
       </c>
       <c r="I327">
@@ -18207,19 +18207,19 @@
         <v>299.6855</v>
       </c>
       <c r="K327">
-        <f>C327*299.6855/J327</f>
+        <f t="shared" si="72"/>
         <v>73440000000</v>
       </c>
       <c r="L327">
-        <f>E327*299.6855/J327</f>
+        <f t="shared" si="73"/>
         <v>113990000000</v>
       </c>
       <c r="M327">
-        <f>G327*299.6855/J327</f>
+        <f t="shared" si="74"/>
         <v>112020000000</v>
       </c>
       <c r="N327">
-        <f>H327*299.6855/J327</f>
+        <f t="shared" si="75"/>
         <v>867670000</v>
       </c>
     </row>
@@ -18239,41 +18239,41 @@
         <v>-386220000</v>
       </c>
       <c r="E328" s="12">
+        <f t="shared" si="76"/>
+        <v>113990000000</v>
+      </c>
+      <c r="F328" s="12">
+        <f t="shared" si="77"/>
+        <v>-1100000000</v>
+      </c>
+      <c r="G328" s="12">
+        <f t="shared" si="78"/>
+        <v>112020000000</v>
+      </c>
+      <c r="H328" s="12">
+        <f t="shared" si="79"/>
+        <v>867670000</v>
+      </c>
+      <c r="I328">
+        <v>200</v>
+      </c>
+      <c r="J328">
+        <v>299.6855</v>
+      </c>
+      <c r="K328">
         <f t="shared" si="72"/>
+        <v>11420000000</v>
+      </c>
+      <c r="L328">
+        <f t="shared" si="73"/>
         <v>113990000000</v>
       </c>
-      <c r="F328" s="12">
-        <f t="shared" si="73"/>
-        <v>-1100000000</v>
-      </c>
-      <c r="G328" s="12">
+      <c r="M328">
         <f t="shared" si="74"/>
         <v>112020000000</v>
       </c>
-      <c r="H328" s="12">
+      <c r="N328">
         <f t="shared" si="75"/>
-        <v>867670000</v>
-      </c>
-      <c r="I328">
-        <v>200</v>
-      </c>
-      <c r="J328">
-        <v>299.6855</v>
-      </c>
-      <c r="K328">
-        <f>C328*299.6855/J328</f>
-        <v>11420000000</v>
-      </c>
-      <c r="L328">
-        <f>E328*299.6855/J328</f>
-        <v>113990000000</v>
-      </c>
-      <c r="M328">
-        <f>G328*299.6855/J328</f>
-        <v>112020000000</v>
-      </c>
-      <c r="N328">
-        <f>H328*299.6855/J328</f>
         <v>867670000</v>
       </c>
     </row>
@@ -18293,41 +18293,41 @@
         <v>-357970000</v>
       </c>
       <c r="E329" s="12">
+        <f t="shared" si="76"/>
+        <v>113990000000</v>
+      </c>
+      <c r="F329" s="12">
+        <f t="shared" si="77"/>
+        <v>-1100000000</v>
+      </c>
+      <c r="G329" s="12">
+        <f t="shared" si="78"/>
+        <v>112020000000</v>
+      </c>
+      <c r="H329" s="12">
+        <f t="shared" si="79"/>
+        <v>867670000</v>
+      </c>
+      <c r="I329">
+        <v>200</v>
+      </c>
+      <c r="J329">
+        <v>299.6855</v>
+      </c>
+      <c r="K329">
         <f t="shared" si="72"/>
+        <v>1140000000</v>
+      </c>
+      <c r="L329">
+        <f t="shared" si="73"/>
         <v>113990000000</v>
       </c>
-      <c r="F329" s="12">
-        <f t="shared" si="73"/>
-        <v>-1100000000</v>
-      </c>
-      <c r="G329" s="12">
+      <c r="M329">
         <f t="shared" si="74"/>
         <v>112020000000</v>
       </c>
-      <c r="H329" s="12">
+      <c r="N329">
         <f t="shared" si="75"/>
-        <v>867670000</v>
-      </c>
-      <c r="I329">
-        <v>200</v>
-      </c>
-      <c r="J329">
-        <v>299.6855</v>
-      </c>
-      <c r="K329">
-        <f>C329*299.6855/J329</f>
-        <v>1140000000</v>
-      </c>
-      <c r="L329">
-        <f>E329*299.6855/J329</f>
-        <v>113990000000</v>
-      </c>
-      <c r="M329">
-        <f>G329*299.6855/J329</f>
-        <v>112020000000</v>
-      </c>
-      <c r="N329">
-        <f>H329*299.6855/J329</f>
         <v>867670000</v>
       </c>
     </row>
@@ -18347,41 +18347,41 @@
         <v>-120560000</v>
       </c>
       <c r="E330" s="12">
+        <f t="shared" si="76"/>
+        <v>113990000000</v>
+      </c>
+      <c r="F330" s="12">
+        <f t="shared" si="77"/>
+        <v>-1100000000</v>
+      </c>
+      <c r="G330" s="12">
+        <f t="shared" si="78"/>
+        <v>112020000000</v>
+      </c>
+      <c r="H330" s="12">
+        <f t="shared" si="79"/>
+        <v>867670000</v>
+      </c>
+      <c r="I330">
+        <v>200</v>
+      </c>
+      <c r="J330">
+        <v>299.6855</v>
+      </c>
+      <c r="K330">
         <f t="shared" si="72"/>
+        <v>18090000000</v>
+      </c>
+      <c r="L330">
+        <f t="shared" si="73"/>
         <v>113990000000</v>
       </c>
-      <c r="F330" s="12">
-        <f t="shared" si="73"/>
-        <v>-1100000000</v>
-      </c>
-      <c r="G330" s="12">
+      <c r="M330">
         <f t="shared" si="74"/>
         <v>112020000000</v>
       </c>
-      <c r="H330" s="12">
+      <c r="N330">
         <f t="shared" si="75"/>
-        <v>867670000</v>
-      </c>
-      <c r="I330">
-        <v>200</v>
-      </c>
-      <c r="J330">
-        <v>299.6855</v>
-      </c>
-      <c r="K330">
-        <f>C330*299.6855/J330</f>
-        <v>18090000000</v>
-      </c>
-      <c r="L330">
-        <f>E330*299.6855/J330</f>
-        <v>113990000000</v>
-      </c>
-      <c r="M330">
-        <f>G330*299.6855/J330</f>
-        <v>112020000000</v>
-      </c>
-      <c r="N330">
-        <f>H330*299.6855/J330</f>
         <v>867670000</v>
       </c>
     </row>
@@ -18401,41 +18401,41 @@
         <v>-97880000</v>
       </c>
       <c r="E331" s="12">
+        <f t="shared" si="76"/>
+        <v>113990000000</v>
+      </c>
+      <c r="F331" s="12">
+        <f t="shared" si="77"/>
+        <v>-1100000000</v>
+      </c>
+      <c r="G331" s="12">
+        <f t="shared" si="78"/>
+        <v>112020000000</v>
+      </c>
+      <c r="H331" s="12">
+        <f t="shared" si="79"/>
+        <v>867670000</v>
+      </c>
+      <c r="I331">
+        <v>200</v>
+      </c>
+      <c r="J331">
+        <v>299.6855</v>
+      </c>
+      <c r="K331">
         <f t="shared" si="72"/>
+        <v>1110000000</v>
+      </c>
+      <c r="L331">
+        <f t="shared" si="73"/>
         <v>113990000000</v>
       </c>
-      <c r="F331" s="12">
-        <f t="shared" si="73"/>
-        <v>-1100000000</v>
-      </c>
-      <c r="G331" s="12">
+      <c r="M331">
         <f t="shared" si="74"/>
         <v>112020000000</v>
       </c>
-      <c r="H331" s="12">
+      <c r="N331">
         <f t="shared" si="75"/>
-        <v>867670000</v>
-      </c>
-      <c r="I331">
-        <v>200</v>
-      </c>
-      <c r="J331">
-        <v>299.6855</v>
-      </c>
-      <c r="K331">
-        <f>C331*299.6855/J331</f>
-        <v>1110000000</v>
-      </c>
-      <c r="L331">
-        <f>E331*299.6855/J331</f>
-        <v>113990000000</v>
-      </c>
-      <c r="M331">
-        <f>G331*299.6855/J331</f>
-        <v>112020000000</v>
-      </c>
-      <c r="N331">
-        <f>H331*299.6855/J331</f>
         <v>867670000</v>
       </c>
     </row>
@@ -18455,41 +18455,41 @@
         <v>-31050000</v>
       </c>
       <c r="E332" s="12">
+        <f t="shared" si="76"/>
+        <v>113990000000</v>
+      </c>
+      <c r="F332" s="12">
+        <f t="shared" si="77"/>
+        <v>-1100000000</v>
+      </c>
+      <c r="G332" s="12">
+        <f t="shared" si="78"/>
+        <v>112020000000</v>
+      </c>
+      <c r="H332" s="12">
+        <f t="shared" si="79"/>
+        <v>867670000</v>
+      </c>
+      <c r="I332">
+        <v>200</v>
+      </c>
+      <c r="J332">
+        <v>299.6855</v>
+      </c>
+      <c r="K332">
         <f t="shared" si="72"/>
+        <v>508140000</v>
+      </c>
+      <c r="L332">
+        <f t="shared" si="73"/>
         <v>113990000000</v>
       </c>
-      <c r="F332" s="12">
-        <f t="shared" si="73"/>
-        <v>-1100000000</v>
-      </c>
-      <c r="G332" s="12">
+      <c r="M332">
         <f t="shared" si="74"/>
         <v>112020000000</v>
       </c>
-      <c r="H332" s="12">
+      <c r="N332">
         <f t="shared" si="75"/>
-        <v>867670000</v>
-      </c>
-      <c r="I332">
-        <v>200</v>
-      </c>
-      <c r="J332">
-        <v>299.6855</v>
-      </c>
-      <c r="K332">
-        <f>C332*299.6855/J332</f>
-        <v>508140000</v>
-      </c>
-      <c r="L332">
-        <f>E332*299.6855/J332</f>
-        <v>113990000000</v>
-      </c>
-      <c r="M332">
-        <f>G332*299.6855/J332</f>
-        <v>112020000000</v>
-      </c>
-      <c r="N332">
-        <f>H332*299.6855/J332</f>
         <v>867670000</v>
       </c>
     </row>
@@ -18509,41 +18509,41 @@
         <v>-3640000</v>
       </c>
       <c r="E333" s="12">
+        <f t="shared" si="76"/>
+        <v>113990000000</v>
+      </c>
+      <c r="F333" s="12">
+        <f t="shared" si="77"/>
+        <v>-1100000000</v>
+      </c>
+      <c r="G333" s="12">
+        <f t="shared" si="78"/>
+        <v>112020000000</v>
+      </c>
+      <c r="H333" s="12">
+        <f t="shared" si="79"/>
+        <v>867670000</v>
+      </c>
+      <c r="I333">
+        <v>200</v>
+      </c>
+      <c r="J333">
+        <v>299.6855</v>
+      </c>
+      <c r="K333">
         <f t="shared" si="72"/>
+        <v>698520000</v>
+      </c>
+      <c r="L333">
+        <f t="shared" si="73"/>
         <v>113990000000</v>
       </c>
-      <c r="F333" s="12">
-        <f t="shared" si="73"/>
-        <v>-1100000000</v>
-      </c>
-      <c r="G333" s="12">
+      <c r="M333">
         <f t="shared" si="74"/>
         <v>112020000000</v>
       </c>
-      <c r="H333" s="12">
+      <c r="N333">
         <f t="shared" si="75"/>
-        <v>867670000</v>
-      </c>
-      <c r="I333">
-        <v>200</v>
-      </c>
-      <c r="J333">
-        <v>299.6855</v>
-      </c>
-      <c r="K333">
-        <f>C333*299.6855/J333</f>
-        <v>698520000</v>
-      </c>
-      <c r="L333">
-        <f>E333*299.6855/J333</f>
-        <v>113990000000</v>
-      </c>
-      <c r="M333">
-        <f>G333*299.6855/J333</f>
-        <v>112020000000</v>
-      </c>
-      <c r="N333">
-        <f>H333*299.6855/J333</f>
         <v>867670000</v>
       </c>
     </row>
@@ -18563,41 +18563,41 @@
         <v>-1630000</v>
       </c>
       <c r="E334" s="12">
+        <f t="shared" si="76"/>
+        <v>113990000000</v>
+      </c>
+      <c r="F334" s="12">
+        <f t="shared" si="77"/>
+        <v>-1100000000</v>
+      </c>
+      <c r="G334" s="12">
+        <f t="shared" si="78"/>
+        <v>112020000000</v>
+      </c>
+      <c r="H334" s="12">
+        <f t="shared" si="79"/>
+        <v>867670000</v>
+      </c>
+      <c r="I334">
+        <v>200</v>
+      </c>
+      <c r="J334">
+        <v>299.6855</v>
+      </c>
+      <c r="K334">
         <f t="shared" si="72"/>
+        <v>-13370000</v>
+      </c>
+      <c r="L334">
+        <f t="shared" si="73"/>
         <v>113990000000</v>
       </c>
-      <c r="F334" s="12">
-        <f t="shared" si="73"/>
-        <v>-1100000000</v>
-      </c>
-      <c r="G334" s="12">
+      <c r="M334">
         <f t="shared" si="74"/>
         <v>112020000000</v>
       </c>
-      <c r="H334" s="12">
+      <c r="N334">
         <f t="shared" si="75"/>
-        <v>867670000</v>
-      </c>
-      <c r="I334">
-        <v>200</v>
-      </c>
-      <c r="J334">
-        <v>299.6855</v>
-      </c>
-      <c r="K334">
-        <f>C334*299.6855/J334</f>
-        <v>-13370000</v>
-      </c>
-      <c r="L334">
-        <f>E334*299.6855/J334</f>
-        <v>113990000000</v>
-      </c>
-      <c r="M334">
-        <f>G334*299.6855/J334</f>
-        <v>112020000000</v>
-      </c>
-      <c r="N334">
-        <f>H334*299.6855/J334</f>
         <v>867670000</v>
       </c>
     </row>
@@ -18617,41 +18617,41 @@
         <v>-1220000</v>
       </c>
       <c r="E335" s="12">
+        <f t="shared" si="76"/>
+        <v>113990000000</v>
+      </c>
+      <c r="F335" s="12">
+        <f t="shared" si="77"/>
+        <v>-1100000000</v>
+      </c>
+      <c r="G335" s="12">
+        <f t="shared" si="78"/>
+        <v>112020000000</v>
+      </c>
+      <c r="H335" s="12">
+        <f t="shared" si="79"/>
+        <v>867670000</v>
+      </c>
+      <c r="I335">
+        <v>200</v>
+      </c>
+      <c r="J335">
+        <v>299.6855</v>
+      </c>
+      <c r="K335">
         <f t="shared" si="72"/>
+        <v>1460000000</v>
+      </c>
+      <c r="L335">
+        <f t="shared" si="73"/>
         <v>113990000000</v>
       </c>
-      <c r="F335" s="12">
-        <f t="shared" si="73"/>
-        <v>-1100000000</v>
-      </c>
-      <c r="G335" s="12">
+      <c r="M335">
         <f t="shared" si="74"/>
         <v>112020000000</v>
       </c>
-      <c r="H335" s="12">
+      <c r="N335">
         <f t="shared" si="75"/>
-        <v>867670000</v>
-      </c>
-      <c r="I335">
-        <v>200</v>
-      </c>
-      <c r="J335">
-        <v>299.6855</v>
-      </c>
-      <c r="K335">
-        <f>C335*299.6855/J335</f>
-        <v>1460000000</v>
-      </c>
-      <c r="L335">
-        <f>E335*299.6855/J335</f>
-        <v>113990000000</v>
-      </c>
-      <c r="M335">
-        <f>G335*299.6855/J335</f>
-        <v>112020000000</v>
-      </c>
-      <c r="N335">
-        <f>H335*299.6855/J335</f>
         <v>867670000</v>
       </c>
     </row>
@@ -18669,41 +18669,41 @@
         <v>0</v>
       </c>
       <c r="E336" s="12">
+        <f t="shared" si="76"/>
+        <v>113990000000</v>
+      </c>
+      <c r="F336" s="12">
+        <f t="shared" si="77"/>
+        <v>-1100000000</v>
+      </c>
+      <c r="G336" s="12">
+        <f t="shared" si="78"/>
+        <v>112020000000</v>
+      </c>
+      <c r="H336" s="12">
+        <f t="shared" si="79"/>
+        <v>867670000</v>
+      </c>
+      <c r="I336">
+        <v>200</v>
+      </c>
+      <c r="J336">
+        <v>299.6855</v>
+      </c>
+      <c r="K336">
         <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="L336">
+        <f t="shared" si="73"/>
         <v>113990000000</v>
       </c>
-      <c r="F336" s="12">
-        <f t="shared" si="73"/>
-        <v>-1100000000</v>
-      </c>
-      <c r="G336" s="12">
+      <c r="M336">
         <f t="shared" si="74"/>
         <v>112020000000</v>
       </c>
-      <c r="H336" s="12">
+      <c r="N336">
         <f t="shared" si="75"/>
-        <v>867670000</v>
-      </c>
-      <c r="I336">
-        <v>200</v>
-      </c>
-      <c r="J336">
-        <v>299.6855</v>
-      </c>
-      <c r="K336">
-        <f>C336*299.6855/J336</f>
-        <v>0</v>
-      </c>
-      <c r="L336">
-        <f>E336*299.6855/J336</f>
-        <v>113990000000</v>
-      </c>
-      <c r="M336">
-        <f>G336*299.6855/J336</f>
-        <v>112020000000</v>
-      </c>
-      <c r="N336">
-        <f>H336*299.6855/J336</f>
         <v>867670000</v>
       </c>
     </row>
@@ -18723,41 +18723,41 @@
         <v>3500000</v>
       </c>
       <c r="E337" s="12">
+        <f t="shared" si="76"/>
+        <v>113990000000</v>
+      </c>
+      <c r="F337" s="12">
+        <f t="shared" si="77"/>
+        <v>-1100000000</v>
+      </c>
+      <c r="G337" s="12">
+        <f t="shared" si="78"/>
+        <v>112020000000</v>
+      </c>
+      <c r="H337" s="12">
+        <f t="shared" si="79"/>
+        <v>867670000</v>
+      </c>
+      <c r="I337">
+        <v>200</v>
+      </c>
+      <c r="J337">
+        <v>299.6855</v>
+      </c>
+      <c r="K337">
         <f t="shared" si="72"/>
+        <v>762990000</v>
+      </c>
+      <c r="L337">
+        <f t="shared" si="73"/>
         <v>113990000000</v>
       </c>
-      <c r="F337" s="12">
-        <f t="shared" si="73"/>
-        <v>-1100000000</v>
-      </c>
-      <c r="G337" s="12">
+      <c r="M337">
         <f t="shared" si="74"/>
         <v>112020000000</v>
       </c>
-      <c r="H337" s="12">
+      <c r="N337">
         <f t="shared" si="75"/>
-        <v>867670000</v>
-      </c>
-      <c r="I337">
-        <v>200</v>
-      </c>
-      <c r="J337">
-        <v>299.6855</v>
-      </c>
-      <c r="K337">
-        <f>C337*299.6855/J337</f>
-        <v>762990000</v>
-      </c>
-      <c r="L337">
-        <f>E337*299.6855/J337</f>
-        <v>113990000000</v>
-      </c>
-      <c r="M337">
-        <f>G337*299.6855/J337</f>
-        <v>112020000000</v>
-      </c>
-      <c r="N337">
-        <f>H337*299.6855/J337</f>
         <v>867670000</v>
       </c>
     </row>
@@ -18777,41 +18777,41 @@
         <v>110560000</v>
       </c>
       <c r="E338" s="12">
+        <f t="shared" si="76"/>
+        <v>113990000000</v>
+      </c>
+      <c r="F338" s="12">
+        <f t="shared" si="77"/>
+        <v>-1100000000</v>
+      </c>
+      <c r="G338" s="12">
+        <f t="shared" si="78"/>
+        <v>112020000000</v>
+      </c>
+      <c r="H338" s="12">
+        <f t="shared" si="79"/>
+        <v>867670000</v>
+      </c>
+      <c r="I338">
+        <v>200</v>
+      </c>
+      <c r="J338">
+        <v>299.6855</v>
+      </c>
+      <c r="K338">
         <f t="shared" si="72"/>
+        <v>186280000</v>
+      </c>
+      <c r="L338">
+        <f t="shared" si="73"/>
         <v>113990000000</v>
       </c>
-      <c r="F338" s="12">
-        <f t="shared" si="73"/>
-        <v>-1100000000</v>
-      </c>
-      <c r="G338" s="12">
+      <c r="M338">
         <f t="shared" si="74"/>
         <v>112020000000</v>
       </c>
-      <c r="H338" s="12">
+      <c r="N338">
         <f t="shared" si="75"/>
-        <v>867670000</v>
-      </c>
-      <c r="I338">
-        <v>200</v>
-      </c>
-      <c r="J338">
-        <v>299.6855</v>
-      </c>
-      <c r="K338">
-        <f>C338*299.6855/J338</f>
-        <v>186280000</v>
-      </c>
-      <c r="L338">
-        <f>E338*299.6855/J338</f>
-        <v>113990000000</v>
-      </c>
-      <c r="M338">
-        <f>G338*299.6855/J338</f>
-        <v>112020000000</v>
-      </c>
-      <c r="N338">
-        <f>H338*299.6855/J338</f>
         <v>867670000</v>
       </c>
     </row>
@@ -18831,41 +18831,41 @@
         <v>239990000</v>
       </c>
       <c r="E339" s="12">
+        <f t="shared" si="76"/>
+        <v>113990000000</v>
+      </c>
+      <c r="F339" s="12">
+        <f t="shared" si="77"/>
+        <v>-1100000000</v>
+      </c>
+      <c r="G339" s="12">
+        <f t="shared" si="78"/>
+        <v>112020000000</v>
+      </c>
+      <c r="H339" s="12">
+        <f t="shared" si="79"/>
+        <v>867670000</v>
+      </c>
+      <c r="I339">
+        <v>200</v>
+      </c>
+      <c r="J339">
+        <v>299.6855</v>
+      </c>
+      <c r="K339">
         <f t="shared" si="72"/>
+        <v>5190000000</v>
+      </c>
+      <c r="L339">
+        <f t="shared" si="73"/>
         <v>113990000000</v>
       </c>
-      <c r="F339" s="12">
-        <f t="shared" si="73"/>
-        <v>-1100000000</v>
-      </c>
-      <c r="G339" s="12">
+      <c r="M339">
         <f t="shared" si="74"/>
         <v>112020000000</v>
       </c>
-      <c r="H339" s="12">
+      <c r="N339">
         <f t="shared" si="75"/>
-        <v>867670000</v>
-      </c>
-      <c r="I339">
-        <v>200</v>
-      </c>
-      <c r="J339">
-        <v>299.6855</v>
-      </c>
-      <c r="K339">
-        <f>C339*299.6855/J339</f>
-        <v>5190000000</v>
-      </c>
-      <c r="L339">
-        <f>E339*299.6855/J339</f>
-        <v>113990000000</v>
-      </c>
-      <c r="M339">
-        <f>G339*299.6855/J339</f>
-        <v>112020000000</v>
-      </c>
-      <c r="N339">
-        <f>H339*299.6855/J339</f>
         <v>867670000</v>
       </c>
     </row>

--- a/RawData/Citywide_Data.xlsx
+++ b/RawData/Citywide_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="14640"/>
+    <workbookView windowWidth="30240" windowHeight="14620"/>
   </bookViews>
   <sheets>
     <sheet name="Citywide_Revenue" sheetId="1" r:id="rId1"/>
@@ -252,10 +252,10 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -270,67 +270,6 @@
       <color rgb="FF1F82C9"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -351,14 +290,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -367,14 +298,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -388,7 +312,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -409,9 +364,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -438,7 +438,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,7 +522,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,25 +570,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,91 +594,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,37 +618,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,6 +629,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -643,6 +667,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,67 +724,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,148 +734,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1243,8 +1243,8 @@
   <sheetPr/>
   <dimension ref="A1:N339"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="E337" sqref="E337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="14"/>
